--- a/qa_bank/qa_bank_20_July_2020.xlsx
+++ b/qa_bank/qa_bank_20_July_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Documents/CODE/EasyLabel/qa_bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB3A045-ACDE-044B-A52C-834127BDD1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A869FA8-B690-6B42-AEA3-27BDFB822782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="50220" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Is there a crossroad in the video?</t>
   </si>
   <si>
-    <t>Are there any non-motorized vehicles occupying the driveway？</t>
-  </si>
-  <si>
     <t>Did anyone be knocked down by a car?</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>no traffic light</t>
-  </si>
-  <si>
-    <t>What's the condition of the road？</t>
   </si>
   <si>
     <t>clear</t>
@@ -681,6 +675,12 @@
   <si>
     <t>Was there any police car around?</t>
   </si>
+  <si>
+    <t>Are there any non-motorized vehicles occupying the driveway?</t>
+  </si>
+  <si>
+    <t>What's the condition of the road?</t>
+  </si>
 </sst>
 </file>
 
@@ -1009,8 +1009,8 @@
   <dimension ref="A1:Y1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
@@ -1667,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>23</v>
@@ -1682,7 +1682,7 @@
         <v>26</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1708,25 +1708,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5"/>
@@ -1753,25 +1753,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5"/>
@@ -1804,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>23</v>
@@ -1819,7 +1819,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1851,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>14</v>
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>14</v>
@@ -1933,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>23</v>
@@ -1978,7 +1978,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
@@ -2019,7 +2019,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>14</v>
@@ -2060,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
@@ -2095,19 +2095,19 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>22</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2142,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>14</v>
@@ -2183,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>14</v>
@@ -2224,7 +2224,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>14</v>
@@ -2265,7 +2265,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>14</v>
@@ -2306,7 +2306,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>14</v>
@@ -2347,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>14</v>
@@ -2388,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>14</v>
@@ -2429,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
@@ -2470,7 +2470,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>14</v>
@@ -2511,7 +2511,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>14</v>
@@ -2552,7 +2552,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>14</v>
@@ -2587,22 +2587,22 @@
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
         <v>33</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2630,22 +2630,22 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>33</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -2673,22 +2673,22 @@
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2">
         <v>34</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2722,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>14</v>
@@ -2757,25 +2757,25 @@
         <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>36</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="5"/>
@@ -2808,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>14</v>
@@ -2849,7 +2849,7 @@
         <v>37</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
@@ -2890,7 +2890,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>14</v>
@@ -2931,7 +2931,7 @@
         <v>38</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>14</v>
@@ -2966,28 +2966,28 @@
         <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2">
         <v>39</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3019,7 +3019,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>14</v>
@@ -3060,7 +3060,7 @@
         <v>41</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>14</v>
@@ -3101,7 +3101,7 @@
         <v>42</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>14</v>
@@ -3142,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>14</v>
@@ -3183,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>14</v>
@@ -3224,13 +3224,13 @@
         <v>45</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3265,13 +3265,13 @@
         <v>46</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>24</v>
@@ -3312,7 +3312,7 @@
         <v>47</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>14</v>
@@ -3353,7 +3353,7 @@
         <v>48</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>14</v>
@@ -3394,7 +3394,7 @@
         <v>49</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>14</v>
@@ -3435,7 +3435,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>14</v>
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>14</v>
@@ -3517,7 +3517,7 @@
         <v>52</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>14</v>
@@ -3558,7 +3558,7 @@
         <v>53</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>14</v>
@@ -3593,13 +3593,13 @@
         <v>11</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
         <v>54</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>14</v>
@@ -3640,7 +3640,7 @@
         <v>55</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>14</v>
@@ -3681,7 +3681,7 @@
         <v>55</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>14</v>
@@ -3722,7 +3722,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>14</v>
@@ -3763,7 +3763,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>14</v>
@@ -3804,7 +3804,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>14</v>
@@ -3839,31 +3839,31 @@
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2">
         <v>60</v>
       </c>
       <c r="E68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="K68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -3894,7 +3894,7 @@
         <v>61</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>14</v>
@@ -3935,7 +3935,7 @@
         <v>62</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>14</v>
@@ -3976,22 +3976,22 @@
         <v>63</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -4017,19 +4017,19 @@
         <v>11</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2">
         <v>64</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -4064,7 +4064,7 @@
         <v>65</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>14</v>
@@ -4099,13 +4099,13 @@
         <v>11</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2">
         <v>66</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>14</v>
@@ -4146,7 +4146,7 @@
         <v>67</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>14</v>
@@ -4187,7 +4187,7 @@
         <v>68</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>14</v>
@@ -4222,28 +4222,28 @@
         <v>11</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2">
         <v>69</v>
       </c>
       <c r="E77" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="J77" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -4275,7 +4275,7 @@
         <v>70</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
@@ -4322,13 +4322,13 @@
         <v>71</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>24</v>
@@ -4357,31 +4357,31 @@
     </row>
     <row r="80" spans="1:25" ht="14">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" s="2">
         <v>72</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="5"/>
@@ -4402,28 +4402,28 @@
     </row>
     <row r="81" spans="1:25" ht="28">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D81" s="2">
         <v>73</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="82" spans="1:25" ht="14">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>21</v>
@@ -4457,7 +4457,7 @@
         <v>74</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>14</v>
@@ -4486,28 +4486,28 @@
     </row>
     <row r="83" spans="1:25" ht="14">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D83" s="2">
         <v>75</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="84" spans="1:25" ht="14">
       <c r="A84" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>16</v>
@@ -4541,7 +4541,7 @@
         <v>76</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>14</v>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="85" spans="1:25" ht="14">
       <c r="A85" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>16</v>
@@ -4582,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>14</v>
@@ -4611,28 +4611,28 @@
     </row>
     <row r="86" spans="1:25" ht="42">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D86" s="2">
         <v>78</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -4654,28 +4654,28 @@
     </row>
     <row r="87" spans="1:25" ht="14">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D87" s="2">
         <v>79</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -4697,19 +4697,19 @@
     </row>
     <row r="88" spans="1:25" ht="14">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2">
         <v>80</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>14</v>
@@ -4738,10 +4738,10 @@
     </row>
     <row r="89" spans="1:25" ht="14">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>16</v>
@@ -4750,7 +4750,7 @@
         <v>81</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>14</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="90" spans="1:25" ht="14">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>16</v>
@@ -4791,7 +4791,7 @@
         <v>81</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>14</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="91" spans="1:25" ht="14">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>16</v>
@@ -4832,7 +4832,7 @@
         <v>83</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>14</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="92" spans="1:25" ht="56">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>16</v>
@@ -4873,19 +4873,19 @@
         <v>84</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="5"/>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="93" spans="1:25" ht="14">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>16</v>
@@ -4918,7 +4918,7 @@
         <v>85</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>14</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="94" spans="1:25" ht="14">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>16</v>
@@ -4959,7 +4959,7 @@
         <v>86</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>14</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="95" spans="1:25" ht="14">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>16</v>
@@ -5000,7 +5000,7 @@
         <v>87</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>14</v>
@@ -5029,31 +5029,31 @@
     </row>
     <row r="96" spans="1:25" ht="70">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D96" s="2">
         <v>88</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="5"/>
@@ -5074,31 +5074,31 @@
     </row>
     <row r="97" spans="1:25" ht="56">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D97" s="2">
         <v>89</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="5"/>
@@ -5119,34 +5119,34 @@
     </row>
     <row r="98" spans="1:25" ht="42">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D98" s="2">
         <v>90</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="J98" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -5166,28 +5166,28 @@
     </row>
     <row r="99" spans="1:25" ht="42">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D99" s="2">
         <v>91</v>
       </c>
       <c r="E99" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -5209,25 +5209,25 @@
     </row>
     <row r="100" spans="1:25" ht="28">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D100" s="2">
         <v>92</v>
       </c>
       <c r="E100" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -5250,31 +5250,31 @@
     </row>
     <row r="101" spans="1:25" ht="42">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D101" s="2">
         <v>93</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="I101" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="5"/>
@@ -5295,31 +5295,31 @@
     </row>
     <row r="102" spans="1:25" ht="42">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D102" s="2">
         <v>94</v>
       </c>
       <c r="E102" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="5"/>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="103" spans="1:25" ht="14">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>21</v>
@@ -5352,7 +5352,7 @@
         <v>95</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>23</v>
@@ -5367,7 +5367,7 @@
         <v>26</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="104" spans="1:25" ht="14">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>16</v>
@@ -5399,7 +5399,7 @@
         <v>96</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>14</v>
@@ -5440,7 +5440,7 @@
         <v>97</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>14</v>
